--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\skripsi\Sidang Proprosal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Documents\NetBeansProjects\NB_WKNN\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8BE0449-8E7C-448C-AD83-BEE464B234BA}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB9239F1-1440-44AE-9919-253391267B03}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="8235" xr2:uid="{1A256759-E485-403F-B9BD-FCCB846B05CB}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="8235" activeTab="3" xr2:uid="{1A256759-E485-403F-B9BD-FCCB846B05CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Data Latih" sheetId="3" r:id="rId3"/>
+    <sheet name="Data Uji" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="41">
   <si>
     <t>Nama</t>
   </si>
@@ -249,16 +251,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -586,8 +588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EB05F81-2756-4C18-9E52-37BA6183BF3A}">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:M29"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -627,630 +629,630 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="4">
-        <v>14</v>
-      </c>
-      <c r="D2" s="4">
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2">
+        <v>14</v>
+      </c>
+      <c r="D2" s="2">
         <v>36</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="2">
         <v>147</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="2">
         <v>18</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="3">
         <v>70</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="3">
         <v>47</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="2"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
+      <c r="I2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="4"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
     </row>
     <row r="3" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="4">
-        <v>12</v>
-      </c>
-      <c r="D3" s="4">
+      <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="2">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2">
         <v>43</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="2">
         <v>153</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="2">
         <v>20</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="2">
         <v>72</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="2">
         <v>48</v>
       </c>
-      <c r="I3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="2"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
+      <c r="I3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="4"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="4">
-        <v>13</v>
-      </c>
-      <c r="D4" s="4">
+      <c r="B4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="2">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2">
         <v>53</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="2">
         <v>163</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="2">
         <v>24</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="2">
         <v>74</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="2">
         <v>46</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="4">
-        <v>13</v>
-      </c>
-      <c r="D5" s="4">
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2">
         <v>41</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="2">
         <v>165</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="2">
         <v>19</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="3">
         <v>68</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="3">
         <v>44</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="4">
-        <v>13</v>
-      </c>
-      <c r="D6" s="4">
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2">
+        <v>13</v>
+      </c>
+      <c r="D6" s="2">
         <v>38</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="2">
         <v>148</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="2">
         <v>18</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="3">
         <v>71</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="3">
         <v>43</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="4">
-        <v>12</v>
-      </c>
-      <c r="D7" s="4">
+      <c r="B7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="2">
+        <v>12</v>
+      </c>
+      <c r="D7" s="2">
         <v>60</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="2">
         <v>157</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="2">
         <v>25</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="3">
         <v>77</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="3">
         <v>46</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="4">
-        <v>14</v>
-      </c>
-      <c r="D8" s="4">
+      <c r="B8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="2">
+        <v>14</v>
+      </c>
+      <c r="D8" s="2">
         <v>65</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="2">
         <v>164</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="2">
         <v>26</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="3">
         <v>78</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="3">
         <v>45</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="I8" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="4">
-        <v>14</v>
-      </c>
-      <c r="D9" s="4">
+      <c r="B9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="2">
+        <v>14</v>
+      </c>
+      <c r="D9" s="2">
         <v>70</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="2">
         <v>163</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="2">
         <v>30</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="3">
         <v>89</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="3">
         <v>48</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I9" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="4">
-        <v>13</v>
-      </c>
-      <c r="D10" s="4">
+      <c r="B10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="2">
+        <v>13</v>
+      </c>
+      <c r="D10" s="2">
         <v>32</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="2">
         <v>144</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="2">
         <v>17</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="3">
         <v>71</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="3">
         <v>47</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="I10" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="4">
-        <v>13</v>
-      </c>
-      <c r="D11" s="4">
+      <c r="B11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="2">
+        <v>13</v>
+      </c>
+      <c r="D11" s="2">
         <v>32</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="2">
         <v>145</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="2">
         <v>17</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="3">
         <v>77</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="3">
         <v>48</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="I11" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="4">
-        <v>13</v>
-      </c>
-      <c r="D12" s="4">
+      <c r="B12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="2">
+        <v>13</v>
+      </c>
+      <c r="D12" s="2">
         <v>65</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="2">
         <v>157</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="2">
         <v>28</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="3">
         <v>90</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="3">
         <v>50</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="I12" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="4">
-        <v>13</v>
-      </c>
-      <c r="D13" s="4">
+      <c r="B13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="2">
+        <v>13</v>
+      </c>
+      <c r="D13" s="2">
         <v>35</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="2">
         <v>164</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="2">
         <v>18</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="3">
         <v>71</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="3">
         <v>48</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="I13" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="4">
-        <v>13</v>
-      </c>
-      <c r="D14" s="4">
+      <c r="B14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="2">
+        <v>13</v>
+      </c>
+      <c r="D14" s="2">
         <v>54</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="2">
         <v>160</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="2">
         <v>22</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="3">
         <v>75</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="3">
         <v>47</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="I14" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="4">
-        <v>13</v>
-      </c>
-      <c r="D15" s="4">
+      <c r="B15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="2">
+        <v>13</v>
+      </c>
+      <c r="D15" s="2">
         <v>49</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="2">
         <v>165</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="2">
         <v>24</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="3">
         <v>80</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="3">
         <v>50</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="I15" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="4">
-        <v>13</v>
-      </c>
-      <c r="D16" s="4">
+      <c r="B16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="2">
+        <v>13</v>
+      </c>
+      <c r="D16" s="2">
         <v>63</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="2">
         <v>160</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="2">
         <v>28</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="3">
         <v>88</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16" s="3">
         <v>52</v>
       </c>
-      <c r="I16" s="5" t="s">
+      <c r="I16" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="4">
-        <v>13</v>
-      </c>
-      <c r="D17" s="4">
+      <c r="B17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="2">
+        <v>13</v>
+      </c>
+      <c r="D17" s="2">
         <v>54</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="2">
         <v>157</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="2">
         <v>25</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="3">
         <v>83</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17" s="3">
         <v>50</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="I17" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="4">
-        <v>13</v>
-      </c>
-      <c r="D18" s="4">
+      <c r="B18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="2">
+        <v>13</v>
+      </c>
+      <c r="D18" s="2">
         <v>76</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="2">
         <v>171</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="2">
         <v>34</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="3">
         <v>93</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18" s="3">
         <v>54</v>
       </c>
-      <c r="I18" s="5" t="s">
+      <c r="I18" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="4">
-        <v>14</v>
-      </c>
-      <c r="D19" s="4">
+      <c r="B19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="2">
+        <v>14</v>
+      </c>
+      <c r="D19" s="2">
         <v>53</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="2">
         <v>160</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="2">
         <v>24</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="3">
         <v>86</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H19" s="3">
         <v>50</v>
       </c>
-      <c r="I19" s="5" t="s">
+      <c r="I19" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="4">
-        <v>14</v>
-      </c>
-      <c r="D20" s="4">
+      <c r="B20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="2">
+        <v>14</v>
+      </c>
+      <c r="D20" s="2">
         <v>55</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="2">
         <v>153</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="2">
         <v>25</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G20" s="3">
         <v>90</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H20" s="3">
         <v>52</v>
       </c>
-      <c r="I20" s="5" t="s">
+      <c r="I20" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="4">
-        <v>14</v>
-      </c>
-      <c r="D21" s="4">
+      <c r="B21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="2">
+        <v>14</v>
+      </c>
+      <c r="D21" s="2">
         <v>35</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="2">
         <v>149</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="2">
         <v>16</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" s="3">
         <v>68</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H21" s="3">
         <v>45</v>
       </c>
-      <c r="I21" s="5" t="s">
+      <c r="I21" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="4">
-        <v>14</v>
-      </c>
-      <c r="D25" s="4">
+      <c r="B25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="2">
+        <v>14</v>
+      </c>
+      <c r="D25" s="2">
         <v>55</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="2">
         <v>154</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="2">
         <v>26</v>
       </c>
-      <c r="G25" s="5">
+      <c r="G25" s="3">
         <v>98</v>
       </c>
-      <c r="H25" s="5">
+      <c r="H25" s="3">
         <v>52</v>
       </c>
-      <c r="I25" s="5" t="s">
+      <c r="I25" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J25" s="2" t="s">
+      <c r="J25" s="4" t="s">
         <v>37</v>
       </c>
       <c r="K25" s="6"/>
@@ -1258,126 +1260,126 @@
       <c r="M25" s="6"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" s="4">
-        <v>13</v>
-      </c>
-      <c r="D26" s="4">
+      <c r="B26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="2">
+        <v>13</v>
+      </c>
+      <c r="D26" s="2">
         <v>39</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="2">
         <v>162</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="2">
         <v>19</v>
       </c>
-      <c r="G26" s="5">
+      <c r="G26" s="3">
         <v>78</v>
       </c>
-      <c r="H26" s="5">
+      <c r="H26" s="3">
         <v>48</v>
       </c>
-      <c r="I26" s="5" t="s">
+      <c r="I26" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J26" s="2"/>
+      <c r="J26" s="4"/>
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" s="4">
-        <v>13</v>
-      </c>
-      <c r="D27" s="4">
+      <c r="B27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="2">
+        <v>13</v>
+      </c>
+      <c r="D27" s="2">
         <v>45</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="2">
         <v>150</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27" s="2">
         <v>23</v>
       </c>
-      <c r="G27" s="5">
+      <c r="G27" s="3">
         <v>86</v>
       </c>
-      <c r="H27" s="5">
+      <c r="H27" s="3">
         <v>49</v>
       </c>
-      <c r="I27" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J27" s="2"/>
+      <c r="I27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J27" s="4"/>
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" s="4">
-        <v>14</v>
-      </c>
-      <c r="D28" s="4">
+      <c r="B28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="2">
+        <v>14</v>
+      </c>
+      <c r="D28" s="2">
         <v>48</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E28" s="2">
         <v>155</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28" s="2">
         <v>25</v>
       </c>
-      <c r="G28" s="5">
+      <c r="G28" s="3">
         <v>90</v>
       </c>
-      <c r="H28" s="5">
+      <c r="H28" s="3">
         <v>50</v>
       </c>
-      <c r="I28" s="5" t="s">
+      <c r="I28" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29" s="4">
-        <v>13</v>
-      </c>
-      <c r="D29" s="4">
+      <c r="B29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="2">
+        <v>13</v>
+      </c>
+      <c r="D29" s="2">
         <v>50</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E29" s="2">
         <v>152</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29" s="2">
         <v>27</v>
       </c>
-      <c r="G29" s="5">
+      <c r="G29" s="3">
         <v>95</v>
       </c>
-      <c r="H29" s="5">
+      <c r="H29" s="3">
         <v>54</v>
       </c>
-      <c r="I29" s="5" t="s">
+      <c r="I29" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1435,661 +1437,661 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="4">
-        <v>14</v>
-      </c>
-      <c r="D2" s="4">
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2">
+        <v>14</v>
+      </c>
+      <c r="D2" s="2">
         <v>1</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="2">
         <v>4</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="2">
         <v>1</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="3">
         <v>1</v>
       </c>
-      <c r="H2" s="5">
-        <v>2</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="2"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
+      <c r="H2" s="3">
+        <v>2</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="4"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
     </row>
     <row r="3" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="4">
-        <v>12</v>
-      </c>
-      <c r="D3" s="4">
-        <v>2</v>
-      </c>
-      <c r="E3" s="4">
+      <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="2">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2">
         <v>5</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="2">
         <v>1</v>
       </c>
-      <c r="G3" s="4">
-        <v>2</v>
-      </c>
-      <c r="H3" s="4">
-        <v>2</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="2"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
+      <c r="G3" s="2">
+        <v>2</v>
+      </c>
+      <c r="H3" s="2">
+        <v>2</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="4"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="4">
-        <v>13</v>
-      </c>
-      <c r="D4" s="4">
+      <c r="B4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="2">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2">
         <v>3</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="2">
         <v>6</v>
       </c>
-      <c r="F4" s="4">
-        <v>2</v>
-      </c>
-      <c r="G4" s="4">
-        <v>2</v>
-      </c>
-      <c r="H4" s="4">
-        <v>2</v>
-      </c>
-      <c r="I4" s="5" t="s">
+      <c r="F4" s="2">
+        <v>2</v>
+      </c>
+      <c r="G4" s="2">
+        <v>2</v>
+      </c>
+      <c r="H4" s="2">
+        <v>2</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="4">
-        <v>13</v>
-      </c>
-      <c r="D5" s="4">
-        <v>2</v>
-      </c>
-      <c r="E5" s="4">
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2</v>
+      </c>
+      <c r="E5" s="2">
         <v>6</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="2">
         <v>1</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="3">
         <v>1</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="3">
         <v>1</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="4">
-        <v>13</v>
-      </c>
-      <c r="D6" s="4">
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2">
+        <v>13</v>
+      </c>
+      <c r="D6" s="2">
         <v>1</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="2">
         <v>4</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="2">
         <v>1</v>
       </c>
-      <c r="G6" s="5">
-        <v>2</v>
-      </c>
-      <c r="H6" s="5">
+      <c r="G6" s="3">
+        <v>2</v>
+      </c>
+      <c r="H6" s="3">
         <v>1</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="4">
-        <v>12</v>
-      </c>
-      <c r="D7" s="4">
+      <c r="B7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="2">
+        <v>12</v>
+      </c>
+      <c r="D7" s="2">
         <v>4</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="2">
         <v>5</v>
       </c>
-      <c r="F7" s="4">
-        <v>2</v>
-      </c>
-      <c r="G7" s="5">
-        <v>2</v>
-      </c>
-      <c r="H7" s="5">
-        <v>2</v>
-      </c>
-      <c r="I7" s="5" t="s">
+      <c r="F7" s="2">
+        <v>2</v>
+      </c>
+      <c r="G7" s="3">
+        <v>2</v>
+      </c>
+      <c r="H7" s="3">
+        <v>2</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="4">
-        <v>14</v>
-      </c>
-      <c r="D8" s="4">
+      <c r="B8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="2">
+        <v>14</v>
+      </c>
+      <c r="D8" s="2">
         <v>4</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="2">
         <v>6</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="2">
         <v>3</v>
       </c>
-      <c r="G8" s="5">
-        <v>2</v>
-      </c>
-      <c r="H8" s="5">
+      <c r="G8" s="3">
+        <v>2</v>
+      </c>
+      <c r="H8" s="3">
         <v>1</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="I8" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="4">
-        <v>14</v>
-      </c>
-      <c r="D9" s="4">
+      <c r="B9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="2">
+        <v>14</v>
+      </c>
+      <c r="D9" s="2">
         <v>4</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="2">
         <v>6</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="2">
         <v>3</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="3">
         <v>3</v>
       </c>
-      <c r="H9" s="5">
-        <v>2</v>
-      </c>
-      <c r="I9" s="5" t="s">
+      <c r="H9" s="3">
+        <v>2</v>
+      </c>
+      <c r="I9" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="4">
-        <v>13</v>
-      </c>
-      <c r="D10" s="4">
+      <c r="B10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="2">
+        <v>13</v>
+      </c>
+      <c r="D10" s="2">
         <v>1</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="2">
         <v>4</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="2">
         <v>1</v>
       </c>
-      <c r="G10" s="5">
-        <v>2</v>
-      </c>
-      <c r="H10" s="5">
-        <v>2</v>
-      </c>
-      <c r="I10" s="5" t="s">
+      <c r="G10" s="3">
+        <v>2</v>
+      </c>
+      <c r="H10" s="3">
+        <v>2</v>
+      </c>
+      <c r="I10" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="4">
-        <v>13</v>
-      </c>
-      <c r="D11" s="4">
+      <c r="B11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="2">
+        <v>13</v>
+      </c>
+      <c r="D11" s="2">
         <v>1</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="2">
         <v>4</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="2">
         <v>1</v>
       </c>
-      <c r="G11" s="5">
-        <v>2</v>
-      </c>
-      <c r="H11" s="5">
-        <v>2</v>
-      </c>
-      <c r="I11" s="5" t="s">
+      <c r="G11" s="3">
+        <v>2</v>
+      </c>
+      <c r="H11" s="3">
+        <v>2</v>
+      </c>
+      <c r="I11" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="4">
-        <v>13</v>
-      </c>
-      <c r="D12" s="4">
+      <c r="B12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="2">
+        <v>13</v>
+      </c>
+      <c r="D12" s="2">
         <v>4</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="2">
         <v>5</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="2">
         <v>3</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="3">
         <v>3</v>
       </c>
-      <c r="H12" s="5">
-        <v>2</v>
-      </c>
-      <c r="I12" s="5" t="s">
+      <c r="H12" s="3">
+        <v>2</v>
+      </c>
+      <c r="I12" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="4">
-        <v>13</v>
-      </c>
-      <c r="D13" s="4">
+      <c r="B13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="2">
+        <v>13</v>
+      </c>
+      <c r="D13" s="2">
         <v>1</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="2">
         <v>6</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="2">
         <v>1</v>
       </c>
-      <c r="G13" s="5">
-        <v>2</v>
-      </c>
-      <c r="H13" s="5">
-        <v>2</v>
-      </c>
-      <c r="I13" s="5" t="s">
+      <c r="G13" s="3">
+        <v>2</v>
+      </c>
+      <c r="H13" s="3">
+        <v>2</v>
+      </c>
+      <c r="I13" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="4">
-        <v>13</v>
-      </c>
-      <c r="D14" s="4">
+      <c r="B14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="2">
+        <v>13</v>
+      </c>
+      <c r="D14" s="2">
         <v>3</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="2">
         <v>5</v>
       </c>
-      <c r="F14" s="4">
-        <v>2</v>
-      </c>
-      <c r="G14" s="5">
-        <v>2</v>
-      </c>
-      <c r="H14" s="5">
-        <v>2</v>
-      </c>
-      <c r="I14" s="5" t="s">
+      <c r="F14" s="2">
+        <v>2</v>
+      </c>
+      <c r="G14" s="3">
+        <v>2</v>
+      </c>
+      <c r="H14" s="3">
+        <v>2</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="4">
-        <v>13</v>
-      </c>
-      <c r="D15" s="4">
-        <v>2</v>
-      </c>
-      <c r="E15" s="4">
+      <c r="B15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="2">
+        <v>13</v>
+      </c>
+      <c r="D15" s="2">
+        <v>2</v>
+      </c>
+      <c r="E15" s="2">
         <v>6</v>
       </c>
-      <c r="F15" s="4">
-        <v>2</v>
-      </c>
-      <c r="G15" s="5">
-        <v>2</v>
-      </c>
-      <c r="H15" s="5">
-        <v>2</v>
-      </c>
-      <c r="I15" s="5" t="s">
+      <c r="F15" s="2">
+        <v>2</v>
+      </c>
+      <c r="G15" s="3">
+        <v>2</v>
+      </c>
+      <c r="H15" s="3">
+        <v>2</v>
+      </c>
+      <c r="I15" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="4">
-        <v>13</v>
-      </c>
-      <c r="D16" s="4">
+      <c r="B16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="2">
+        <v>13</v>
+      </c>
+      <c r="D16" s="2">
         <v>4</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="2">
         <v>5</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="2">
         <v>3</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="3">
         <v>3</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16" s="3">
         <v>3</v>
       </c>
-      <c r="I16" s="5" t="s">
+      <c r="I16" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="4">
-        <v>13</v>
-      </c>
-      <c r="D17" s="4">
+      <c r="B17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="2">
+        <v>13</v>
+      </c>
+      <c r="D17" s="2">
         <v>3</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="2">
         <v>5</v>
       </c>
-      <c r="F17" s="4">
-        <v>2</v>
-      </c>
-      <c r="G17" s="5">
+      <c r="F17" s="2">
+        <v>2</v>
+      </c>
+      <c r="G17" s="3">
         <v>3</v>
       </c>
-      <c r="H17" s="5">
-        <v>2</v>
-      </c>
-      <c r="I17" s="5" t="s">
+      <c r="H17" s="3">
+        <v>2</v>
+      </c>
+      <c r="I17" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="4">
-        <v>13</v>
-      </c>
-      <c r="D18" s="4">
+      <c r="B18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="2">
+        <v>13</v>
+      </c>
+      <c r="D18" s="2">
         <v>5</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="2">
         <v>7</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="2">
         <v>4</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="3">
         <v>4</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18" s="3">
         <v>3</v>
       </c>
-      <c r="I18" s="5" t="s">
+      <c r="I18" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="4">
-        <v>14</v>
-      </c>
-      <c r="D19" s="4">
+      <c r="B19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="2">
+        <v>14</v>
+      </c>
+      <c r="D19" s="2">
         <v>3</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="2">
         <v>5</v>
       </c>
-      <c r="F19" s="4">
-        <v>2</v>
-      </c>
-      <c r="G19" s="5">
+      <c r="F19" s="2">
+        <v>2</v>
+      </c>
+      <c r="G19" s="3">
         <v>3</v>
       </c>
-      <c r="H19" s="5">
-        <v>2</v>
-      </c>
-      <c r="I19" s="5" t="s">
+      <c r="H19" s="3">
+        <v>2</v>
+      </c>
+      <c r="I19" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="4">
-        <v>14</v>
-      </c>
-      <c r="D20" s="4">
+      <c r="B20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="2">
+        <v>14</v>
+      </c>
+      <c r="D20" s="2">
         <v>3</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="2">
         <v>5</v>
       </c>
-      <c r="F20" s="4">
-        <v>2</v>
-      </c>
-      <c r="G20" s="5">
+      <c r="F20" s="2">
+        <v>2</v>
+      </c>
+      <c r="G20" s="3">
         <v>3</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H20" s="3">
         <v>3</v>
       </c>
-      <c r="I20" s="5" t="s">
+      <c r="I20" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="4">
-        <v>14</v>
-      </c>
-      <c r="D21" s="4">
+      <c r="B21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="2">
+        <v>14</v>
+      </c>
+      <c r="D21" s="2">
         <v>1</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="2">
         <v>4</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="2">
         <v>1</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" s="3">
         <v>1</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H21" s="3">
         <v>1</v>
       </c>
-      <c r="I21" s="5" t="s">
+      <c r="I21" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="4">
-        <v>14</v>
-      </c>
-      <c r="D25" s="4">
+      <c r="B25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="2">
+        <v>14</v>
+      </c>
+      <c r="D25" s="2">
         <v>3</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="2">
         <v>5</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="2">
         <v>3</v>
       </c>
-      <c r="G25" s="5">
+      <c r="G25" s="3">
         <v>4</v>
       </c>
-      <c r="H25" s="5">
+      <c r="H25" s="3">
         <v>3</v>
       </c>
-      <c r="I25" s="5" t="s">
+      <c r="I25" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J25" s="2" t="s">
+      <c r="J25" s="4" t="s">
         <v>37</v>
       </c>
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="4">
-        <v>13</v>
-      </c>
-      <c r="D26" s="4">
+      <c r="B26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="2">
+        <v>13</v>
+      </c>
+      <c r="D26" s="2">
         <v>1</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="2">
         <v>6</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="2">
         <v>1</v>
       </c>
-      <c r="G26" s="5">
-        <v>2</v>
-      </c>
-      <c r="H26" s="5">
-        <v>2</v>
-      </c>
-      <c r="I26" s="5" t="s">
+      <c r="G26" s="3">
+        <v>2</v>
+      </c>
+      <c r="H26" s="3">
+        <v>2</v>
+      </c>
+      <c r="I26" s="3" t="s">
         <v>17</v>
       </c>
       <c r="J26" s="8"/>
@@ -2097,31 +2099,31 @@
       <c r="L26" s="7"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" s="4">
-        <v>13</v>
-      </c>
-      <c r="D27" s="4">
-        <v>2</v>
-      </c>
-      <c r="E27" s="4">
+      <c r="B27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="2">
+        <v>13</v>
+      </c>
+      <c r="D27" s="2">
+        <v>2</v>
+      </c>
+      <c r="E27" s="2">
         <v>4</v>
       </c>
-      <c r="F27" s="4">
-        <v>2</v>
-      </c>
-      <c r="G27" s="5">
+      <c r="F27" s="2">
+        <v>2</v>
+      </c>
+      <c r="G27" s="3">
         <v>3</v>
       </c>
-      <c r="H27" s="5">
-        <v>2</v>
-      </c>
-      <c r="I27" s="5" t="s">
+      <c r="H27" s="3">
+        <v>2</v>
+      </c>
+      <c r="I27" s="3" t="s">
         <v>12</v>
       </c>
       <c r="J27" s="8"/>
@@ -2129,60 +2131,60 @@
       <c r="L27" s="7"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" s="4">
-        <v>14</v>
-      </c>
-      <c r="D28" s="4">
-        <v>2</v>
-      </c>
-      <c r="E28" s="4">
+      <c r="B28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="2">
+        <v>14</v>
+      </c>
+      <c r="D28" s="2">
+        <v>2</v>
+      </c>
+      <c r="E28" s="2">
         <v>5</v>
       </c>
-      <c r="F28" s="4">
-        <v>2</v>
-      </c>
-      <c r="G28" s="5">
+      <c r="F28" s="2">
+        <v>2</v>
+      </c>
+      <c r="G28" s="3">
         <v>3</v>
       </c>
-      <c r="H28" s="5">
-        <v>2</v>
-      </c>
-      <c r="I28" s="5" t="s">
+      <c r="H28" s="3">
+        <v>2</v>
+      </c>
+      <c r="I28" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29" s="4">
-        <v>13</v>
-      </c>
-      <c r="D29" s="4">
-        <v>2</v>
-      </c>
-      <c r="E29" s="4">
+      <c r="B29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="2">
+        <v>13</v>
+      </c>
+      <c r="D29" s="2">
+        <v>2</v>
+      </c>
+      <c r="E29" s="2">
         <v>5</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29" s="2">
         <v>3</v>
       </c>
-      <c r="G29" s="5">
+      <c r="G29" s="3">
         <v>4</v>
       </c>
-      <c r="H29" s="5">
+      <c r="H29" s="3">
         <v>3</v>
       </c>
-      <c r="I29" s="5" t="s">
+      <c r="I29" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2193,4 +2195,817 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{407E01F7-0EAB-44F6-9C7F-AC6713B87064}">
+  <dimension ref="A1:I21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2">
+        <v>14</v>
+      </c>
+      <c r="D2" s="2">
+        <v>36</v>
+      </c>
+      <c r="E2" s="2">
+        <v>147</v>
+      </c>
+      <c r="F2" s="2">
+        <v>18</v>
+      </c>
+      <c r="G2" s="3">
+        <v>70</v>
+      </c>
+      <c r="H2" s="3">
+        <v>47</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="2">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2">
+        <v>43</v>
+      </c>
+      <c r="E3" s="2">
+        <v>153</v>
+      </c>
+      <c r="F3" s="2">
+        <v>20</v>
+      </c>
+      <c r="G3" s="2">
+        <v>72</v>
+      </c>
+      <c r="H3" s="2">
+        <v>48</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="2">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2">
+        <v>53</v>
+      </c>
+      <c r="E4" s="2">
+        <v>163</v>
+      </c>
+      <c r="F4" s="2">
+        <v>24</v>
+      </c>
+      <c r="G4" s="2">
+        <v>74</v>
+      </c>
+      <c r="H4" s="2">
+        <v>46</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2">
+        <v>41</v>
+      </c>
+      <c r="E5" s="2">
+        <v>165</v>
+      </c>
+      <c r="F5" s="2">
+        <v>19</v>
+      </c>
+      <c r="G5" s="3">
+        <v>68</v>
+      </c>
+      <c r="H5" s="3">
+        <v>44</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2">
+        <v>13</v>
+      </c>
+      <c r="D6" s="2">
+        <v>38</v>
+      </c>
+      <c r="E6" s="2">
+        <v>148</v>
+      </c>
+      <c r="F6" s="2">
+        <v>18</v>
+      </c>
+      <c r="G6" s="3">
+        <v>71</v>
+      </c>
+      <c r="H6" s="3">
+        <v>43</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="2">
+        <v>12</v>
+      </c>
+      <c r="D7" s="2">
+        <v>60</v>
+      </c>
+      <c r="E7" s="2">
+        <v>157</v>
+      </c>
+      <c r="F7" s="2">
+        <v>25</v>
+      </c>
+      <c r="G7" s="3">
+        <v>77</v>
+      </c>
+      <c r="H7" s="3">
+        <v>46</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="2">
+        <v>14</v>
+      </c>
+      <c r="D8" s="2">
+        <v>65</v>
+      </c>
+      <c r="E8" s="2">
+        <v>164</v>
+      </c>
+      <c r="F8" s="2">
+        <v>26</v>
+      </c>
+      <c r="G8" s="3">
+        <v>78</v>
+      </c>
+      <c r="H8" s="3">
+        <v>45</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="2">
+        <v>14</v>
+      </c>
+      <c r="D9" s="2">
+        <v>70</v>
+      </c>
+      <c r="E9" s="2">
+        <v>163</v>
+      </c>
+      <c r="F9" s="2">
+        <v>30</v>
+      </c>
+      <c r="G9" s="3">
+        <v>89</v>
+      </c>
+      <c r="H9" s="3">
+        <v>48</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="2">
+        <v>13</v>
+      </c>
+      <c r="D10" s="2">
+        <v>32</v>
+      </c>
+      <c r="E10" s="2">
+        <v>144</v>
+      </c>
+      <c r="F10" s="2">
+        <v>17</v>
+      </c>
+      <c r="G10" s="3">
+        <v>71</v>
+      </c>
+      <c r="H10" s="3">
+        <v>47</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="2">
+        <v>13</v>
+      </c>
+      <c r="D11" s="2">
+        <v>32</v>
+      </c>
+      <c r="E11" s="2">
+        <v>145</v>
+      </c>
+      <c r="F11" s="2">
+        <v>17</v>
+      </c>
+      <c r="G11" s="3">
+        <v>77</v>
+      </c>
+      <c r="H11" s="3">
+        <v>48</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="2">
+        <v>13</v>
+      </c>
+      <c r="D12" s="2">
+        <v>65</v>
+      </c>
+      <c r="E12" s="2">
+        <v>157</v>
+      </c>
+      <c r="F12" s="2">
+        <v>28</v>
+      </c>
+      <c r="G12" s="3">
+        <v>90</v>
+      </c>
+      <c r="H12" s="3">
+        <v>50</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="2">
+        <v>13</v>
+      </c>
+      <c r="D13" s="2">
+        <v>35</v>
+      </c>
+      <c r="E13" s="2">
+        <v>164</v>
+      </c>
+      <c r="F13" s="2">
+        <v>18</v>
+      </c>
+      <c r="G13" s="3">
+        <v>71</v>
+      </c>
+      <c r="H13" s="3">
+        <v>48</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="2">
+        <v>13</v>
+      </c>
+      <c r="D14" s="2">
+        <v>54</v>
+      </c>
+      <c r="E14" s="2">
+        <v>160</v>
+      </c>
+      <c r="F14" s="2">
+        <v>22</v>
+      </c>
+      <c r="G14" s="3">
+        <v>75</v>
+      </c>
+      <c r="H14" s="3">
+        <v>47</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="2">
+        <v>13</v>
+      </c>
+      <c r="D15" s="2">
+        <v>49</v>
+      </c>
+      <c r="E15" s="2">
+        <v>165</v>
+      </c>
+      <c r="F15" s="2">
+        <v>24</v>
+      </c>
+      <c r="G15" s="3">
+        <v>80</v>
+      </c>
+      <c r="H15" s="3">
+        <v>50</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="2">
+        <v>13</v>
+      </c>
+      <c r="D16" s="2">
+        <v>63</v>
+      </c>
+      <c r="E16" s="2">
+        <v>160</v>
+      </c>
+      <c r="F16" s="2">
+        <v>28</v>
+      </c>
+      <c r="G16" s="3">
+        <v>88</v>
+      </c>
+      <c r="H16" s="3">
+        <v>52</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="2">
+        <v>13</v>
+      </c>
+      <c r="D17" s="2">
+        <v>54</v>
+      </c>
+      <c r="E17" s="2">
+        <v>157</v>
+      </c>
+      <c r="F17" s="2">
+        <v>25</v>
+      </c>
+      <c r="G17" s="3">
+        <v>83</v>
+      </c>
+      <c r="H17" s="3">
+        <v>50</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="2">
+        <v>13</v>
+      </c>
+      <c r="D18" s="2">
+        <v>76</v>
+      </c>
+      <c r="E18" s="2">
+        <v>171</v>
+      </c>
+      <c r="F18" s="2">
+        <v>34</v>
+      </c>
+      <c r="G18" s="3">
+        <v>93</v>
+      </c>
+      <c r="H18" s="3">
+        <v>54</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="2">
+        <v>14</v>
+      </c>
+      <c r="D19" s="2">
+        <v>53</v>
+      </c>
+      <c r="E19" s="2">
+        <v>160</v>
+      </c>
+      <c r="F19" s="2">
+        <v>24</v>
+      </c>
+      <c r="G19" s="3">
+        <v>86</v>
+      </c>
+      <c r="H19" s="3">
+        <v>50</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="2">
+        <v>14</v>
+      </c>
+      <c r="D20" s="2">
+        <v>55</v>
+      </c>
+      <c r="E20" s="2">
+        <v>153</v>
+      </c>
+      <c r="F20" s="2">
+        <v>25</v>
+      </c>
+      <c r="G20" s="3">
+        <v>90</v>
+      </c>
+      <c r="H20" s="3">
+        <v>52</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="2">
+        <v>14</v>
+      </c>
+      <c r="D21" s="2">
+        <v>35</v>
+      </c>
+      <c r="E21" s="2">
+        <v>149</v>
+      </c>
+      <c r="F21" s="2">
+        <v>16</v>
+      </c>
+      <c r="G21" s="3">
+        <v>68</v>
+      </c>
+      <c r="H21" s="3">
+        <v>45</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D08FCD94-C7A8-4A82-A215-A6ECA1667364}">
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:I1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2">
+        <v>14</v>
+      </c>
+      <c r="D2" s="2">
+        <v>55</v>
+      </c>
+      <c r="E2" s="2">
+        <v>154</v>
+      </c>
+      <c r="F2" s="2">
+        <v>26</v>
+      </c>
+      <c r="G2" s="3">
+        <v>98</v>
+      </c>
+      <c r="H2" s="3">
+        <v>52</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="2">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2">
+        <v>39</v>
+      </c>
+      <c r="E3" s="2">
+        <v>162</v>
+      </c>
+      <c r="F3" s="2">
+        <v>19</v>
+      </c>
+      <c r="G3" s="3">
+        <v>78</v>
+      </c>
+      <c r="H3" s="3">
+        <v>48</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2">
+        <v>45</v>
+      </c>
+      <c r="E4" s="2">
+        <v>150</v>
+      </c>
+      <c r="F4" s="2">
+        <v>23</v>
+      </c>
+      <c r="G4" s="3">
+        <v>86</v>
+      </c>
+      <c r="H4" s="3">
+        <v>49</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2">
+        <v>14</v>
+      </c>
+      <c r="D5" s="2">
+        <v>48</v>
+      </c>
+      <c r="E5" s="2">
+        <v>155</v>
+      </c>
+      <c r="F5" s="2">
+        <v>25</v>
+      </c>
+      <c r="G5" s="3">
+        <v>90</v>
+      </c>
+      <c r="H5" s="3">
+        <v>50</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="2">
+        <v>13</v>
+      </c>
+      <c r="D6" s="2">
+        <v>50</v>
+      </c>
+      <c r="E6" s="2">
+        <v>152</v>
+      </c>
+      <c r="F6" s="2">
+        <v>27</v>
+      </c>
+      <c r="G6" s="3">
+        <v>95</v>
+      </c>
+      <c r="H6" s="3">
+        <v>54</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>